--- a/src/excel/Tax_receipt_form.xlsx
+++ b/src/excel/Tax_receipt_form.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEEN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tubtim\Documents\GitHub\Tax-Receipt\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD01B30-839A-40D1-ACE6-FA167721BE9F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FE3CDB-7279-4BA9-9893-7D4A7DB52529}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{A312CFBA-0A3B-4DEB-B8C8-10767373C919}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>รายการ</t>
   </si>
@@ -93,36 +93,18 @@
     <t>วันที่........................................</t>
   </si>
   <si>
-    <t>นายพัทธวีร์ ชมภวร</t>
-  </si>
-  <si>
-    <t>นายพัทธวีร์ ชุมภูวร</t>
-  </si>
-  <si>
     <t>ภีมรจรัษ  ณควัชรภาณิชภูษิตนิกรโยธิน</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>18/01/2019</t>
-  </si>
-  <si>
     <t>snack</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>60.0</t>
-  </si>
-  <si>
     <t>ตึก ECC</t>
   </si>
   <si>
@@ -130,6 +112,15 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>19/01/2562</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>60.00</t>
   </si>
 </sst>
 </file>
@@ -137,11 +128,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -183,6 +174,13 @@
       <name val="Microsoft Sans Serif"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -305,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -324,19 +322,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -350,65 +339,80 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -424,7 +428,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -720,29 +724,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B528EB36-30A8-40F0-A653-EFB09B039479}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="4" width="6.85546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="4" width="6.875" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="4" width="14.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="21.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="6" width="9.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="4" width="10.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="4" width="17.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="4" width="6.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="4" width="9.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="4" width="10.5703125" collapsed="true"/>
-    <col min="10" max="16384" style="4" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="21.25" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="6" width="9.625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="4" width="10.125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="17.625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="6.75" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="9.25" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="10.625" collapsed="true"/>
+    <col min="10" max="16384" style="4" width="9.125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="18.75">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="7"/>
@@ -750,9 +753,8 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="18.75">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="7"/>
@@ -760,9 +762,8 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="18.75">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="7"/>
@@ -770,9 +771,8 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="18.75">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="7"/>
@@ -780,7 +780,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="15.75">
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -788,33 +788,33 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="20.25">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" ht="15.75">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" ht="20.25">
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
@@ -822,18 +822,18 @@
         <v>15</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="20.25">
+    <row r="9" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
@@ -841,19 +841,19 @@
         <v>14</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="20.25">
+    <row r="10" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="7"/>
@@ -862,7 +862,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" ht="15.75">
+    <row r="11" spans="1:9" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -870,331 +870,331 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="20.25">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="22" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="17" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="20.25">
-      <c r="A13" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="33" t="s">
+    <row r="13" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="20" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="20.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
+    <row r="14" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="20.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
+    <row r="15" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" ht="20.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
+    <row r="16" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" ht="20.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
+    <row r="17" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="20.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
+    <row r="18" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="20.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
+    <row r="19" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="18"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="20.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
+    <row r="20" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="18"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" ht="20.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
+    <row r="21" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="18"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" ht="20.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
+    <row r="22" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="18"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="20.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
+    <row r="23" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="18"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" ht="20.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="39"/>
+    <row r="24" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" ht="20.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="12"/>
+    <row r="25" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="18"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" ht="20.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="12"/>
+    <row r="26" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="18"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" ht="20.25">
-      <c r="A27" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="8"/>
+    <row r="27" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="18"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" ht="20.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="7"/>
+    <row r="28" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="18"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" ht="20.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="8"/>
+    <row r="29" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="19"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" ht="20.25">
-      <c r="A30" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
+    <row r="30" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="18"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="36"/>
+      <c r="F30" s="26"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" ht="20.25">
-      <c r="A31" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+    <row r="31" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="31"/>
+      <c r="F31" s="10"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" ht="20.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+    <row r="32" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="31"/>
+      <c r="F32" s="10"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" ht="20.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+    <row r="33" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="8"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" ht="20.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+    <row r="34" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="7"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" ht="20.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+    <row r="35" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="8"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" ht="20.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+    <row r="36" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" ht="20.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+    <row r="37" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A37" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="1:9" ht="20.25">
+    <row r="38" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1205,7 +1205,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" ht="20.25">
+    <row r="39" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1216,7 +1216,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" ht="20.25">
+    <row r="40" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1227,7 +1227,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" ht="20.25">
+    <row r="41" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1238,7 +1238,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9" ht="20.25">
+    <row r="42" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1249,7 +1249,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9" ht="20.25">
+    <row r="43" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1260,29 +1260,77 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
+    <row r="44" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A32:C32"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
